--- a/biology/Médecine/Olivier_Hermine/Olivier_Hermine.xlsx
+++ b/biology/Médecine/Olivier_Hermine/Olivier_Hermine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Hermine est professeur d'hématologie à l’université Paris Descartes, chef du service d’hématologie et immunologie de l’hôpital Hôpital Necker-Enfants malades, membre de the LYmphoma Study Association (LYSA) et de the LYmphoma Academic ResearCh organisation (LYSARC) et directeur de l’équipe CALYM « Mécanismes cellulaires et moléculaires des désordres hématologiques et implications thérapeutiques » à l’Institut des maladies génétiques Imagine[1]. Il est également coordonnateur du Centre de référence des mastocytoses (CeReMast)[2].
-Il est président du conseil scientifique de la société AB Science qu'il a contribué à créer. Il est également cofondateur de la société Inathéris en 2009[3].
-En avril 2020, il a été chargé par l'AP-HP de coordonner une étude baptisée CORIMUNO-19 qui teste de nouveaux traitements du COVID-19. A la suite de publications jugées prématurées sur l'intérêt du Tocilizumab, le comité de suivi de CORIMUNO-19 démissionne un mois plus tard[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Hermine est professeur d'hématologie à l’université Paris Descartes, chef du service d’hématologie et immunologie de l’hôpital Hôpital Necker-Enfants malades, membre de the LYmphoma Study Association (LYSA) et de the LYmphoma Academic ResearCh organisation (LYSARC) et directeur de l’équipe CALYM « Mécanismes cellulaires et moléculaires des désordres hématologiques et implications thérapeutiques » à l’Institut des maladies génétiques Imagine. Il est également coordonnateur du Centre de référence des mastocytoses (CeReMast).
+Il est président du conseil scientifique de la société AB Science qu'il a contribué à créer. Il est également cofondateur de la société Inathéris en 2009.
+En avril 2020, il a été chargé par l'AP-HP de coordonner une étude baptisée CORIMUNO-19 qui teste de nouveaux traitements du COVID-19. A la suite de publications jugées prématurées sur l'intérêt du Tocilizumab, le comité de suivi de CORIMUNO-19 démissionne un mois plus tard.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, la Fondation Guillaumat-Piel lui attribue son prix pour ses travaux de recherche sur les maladies infantiles, sur les maladies du sang ou ostéo-articulaires.
-En 2012, il reçoit le Grand Prix de la Fondation de France[3].
+En 2012, il reçoit le Grand Prix de la Fondation de France.
 En 2014, il reçoit le Prix ÉTANCELIN (5.500 €) de l'Académie des Sciences.
-Il a été élu à l'Académie des sciences le 5 décembre 2017[5].
-Il est ceinture noire de judo. Il a amené le champion olympique Teddy Riner auprès de ses jeunes patients de l'hôpital Hôpital Necker-Enfants malades en 2012[6].
+Il a été élu à l'Académie des sciences le 5 décembre 2017.
+Il est ceinture noire de judo. Il a amené le champion olympique Teddy Riner auprès de ses jeunes patients de l'hôpital Hôpital Necker-Enfants malades en 2012.
 </t>
         </is>
       </c>
